--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="n">
+      <c r="A115" t="n">
         <v>9</v>
       </c>
-      <c r="B115" s="2" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" s="2" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" t="n">
         <v>4</v>
       </c>
-      <c r="E115" s="2" t="inlineStr">
+      <c r="E115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" s="2" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J115" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K115" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L115" s="2" t="inlineStr">
+      <c r="G115" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" t="b">
+        <v>1</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K115" t="b">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="n">
+      <c r="A116" t="n">
         <v>9</v>
       </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" t="n">
         <v>5</v>
       </c>
-      <c r="E116" s="2" t="inlineStr">
+      <c r="E116" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G116" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L116" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G116" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" t="b">
+        <v>1</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K116" t="b">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -13918,470 +13918,470 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="n">
+      <c r="A260" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B260" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C260" s="2" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" t="inlineStr">
+      <c r="D260" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="F260" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" t="b">
-        <v>1</v>
-      </c>
-      <c r="J260" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K260" t="b">
-        <v>1</v>
-      </c>
-      <c r="L260" t="inlineStr">
+      <c r="G260" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J260" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K260" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L260" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" t="n">
+      <c r="A261" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B261" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C261" s="2" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" t="inlineStr">
+      <c r="D261" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="F261" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" t="b">
-        <v>1</v>
-      </c>
-      <c r="J261" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K261" t="b">
-        <v>1</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="G261" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J261" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K261" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L261" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="n">
+      <c r="A262" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B262" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C262" s="2" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" t="n">
+      <c r="D262" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="E262" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="F262" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G262" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J262" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K262" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L262" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B263" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C263" s="2" t="inlineStr">
+        <is>
+          <t>in</t>
+        </is>
+      </c>
+      <c r="D263" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E263" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G262" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" t="b">
-        <v>1</v>
-      </c>
-      <c r="J262" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K262" t="b">
-        <v>1</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" t="n">
+      <c r="F263" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G263" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J263" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K263" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L263" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B263" t="inlineStr">
+      <c r="B264" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="D263" t="n">
-        <v>3</v>
-      </c>
-      <c r="E263" t="inlineStr">
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E264" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="F264" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G264" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L264" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E265" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G263" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" t="b">
-        <v>1</v>
-      </c>
-      <c r="J263" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K263" t="b">
-        <v>1</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" t="n">
+      <c r="F265" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G265" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L265" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B266" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="D264" t="n">
-        <v>4</v>
-      </c>
-      <c r="E264" t="inlineStr">
+      <c r="C266" s="2" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="D266" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="F266" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G264" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" t="b">
-        <v>1</v>
-      </c>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K264" t="b">
-        <v>1</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" t="n">
+      <c r="G266" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J266" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K266" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L266" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B265" t="inlineStr">
+      <c r="B267" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>Warning</t>
-        </is>
-      </c>
-      <c r="D265" t="n">
-        <v>5</v>
-      </c>
-      <c r="E265" t="inlineStr">
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="F267" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" t="b">
-        <v>1</v>
-      </c>
-      <c r="J265" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K265" t="b">
-        <v>1</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" t="n">
+      <c r="G267" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L267" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B268" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>Zone</t>
-        </is>
-      </c>
-      <c r="D266" t="n">
-        <v>6</v>
-      </c>
-      <c r="E266" t="inlineStr">
+      <c r="C268" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D268" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="F268" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" t="b">
-        <v>1</v>
-      </c>
-      <c r="J266" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K266" t="b">
-        <v>1</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" t="n">
-        <v>20</v>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D267" t="n">
-        <v>7</v>
-      </c>
-      <c r="E267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F267" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G267" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" t="b">
-        <v>1</v>
-      </c>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K267" t="b">
-        <v>1</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" t="n">
-        <v>20</v>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D268" t="n">
-        <v>8</v>
-      </c>
-      <c r="E268" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F268" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G268" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" t="b">
-        <v>1</v>
-      </c>
-      <c r="J268" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K268" t="b">
-        <v>1</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="G268" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J268" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K268" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L268" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>B-Event</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" t="n">
+      <c r="A321" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B321" t="inlineStr">
+      <c r="B321" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" t="inlineStr">
+      <c r="C321" s="2" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" t="n">
+      <c r="D321" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E321" t="inlineStr">
+      <c r="E321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr">
+      <c r="F321" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" t="b">
-        <v>1</v>
-      </c>
-      <c r="J321" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K321" t="b">
-        <v>1</v>
-      </c>
-      <c r="L321" t="inlineStr">
+      <c r="G321" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J321" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K321" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L321" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" t="n">
+      <c r="A322" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B322" t="inlineStr">
+      <c r="B322" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" t="inlineStr">
+      <c r="C322" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" t="n">
+      <c r="D322" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" t="b">
-        <v>1</v>
-      </c>
-      <c r="J322" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K322" t="b">
-        <v>1</v>
-      </c>
-      <c r="L322" t="inlineStr">
+      <c r="E322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J322" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K322" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L322" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="n">
+      <c r="A323" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B323" t="inlineStr">
+      <c r="B323" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" t="inlineStr">
+      <c r="C323" s="2" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" t="n">
+      <c r="D323" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" t="b">
-        <v>1</v>
-      </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K323" t="b">
-        <v>1</v>
-      </c>
-      <c r="L323" t="inlineStr">
+      <c r="E323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J323" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K323" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L323" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="n">
+      <c r="A324" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B324" t="inlineStr">
+      <c r="B324" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" t="inlineStr">
+      <c r="C324" s="2" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" t="n">
+      <c r="D324" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" t="b">
-        <v>1</v>
-      </c>
-      <c r="J324" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K324" t="b">
-        <v>1</v>
-      </c>
-      <c r="L324" t="inlineStr">
+      <c r="E324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J324" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K324" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L324" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" t="n">
+      <c r="A325" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B325" t="inlineStr">
+      <c r="B325" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" t="inlineStr">
+      <c r="C325" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" t="n">
+      <c r="D325" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" t="b">
-        <v>1</v>
-      </c>
-      <c r="J325" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K325" t="b">
-        <v>1</v>
-      </c>
-      <c r="L325" t="inlineStr">
+      <c r="E325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J325" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K325" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L325" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" t="n">
+      <c r="A326" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B326" t="inlineStr">
+      <c r="B326" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" t="inlineStr">
+      <c r="C326" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" t="n">
+      <c r="D326" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" t="b">
-        <v>1</v>
-      </c>
-      <c r="J326" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K326" t="b">
-        <v>1</v>
-      </c>
-      <c r="L326" t="inlineStr">
+      <c r="E326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J326" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K326" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L326" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" t="n">
+      <c r="A327" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B327" t="inlineStr">
+      <c r="B327" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" t="inlineStr">
+      <c r="C327" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" t="n">
+      <c r="D327" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" t="b">
-        <v>1</v>
-      </c>
-      <c r="J327" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K327" t="b">
-        <v>1</v>
-      </c>
-      <c r="L327" t="inlineStr">
+      <c r="E327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J327" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K327" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L327" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" t="n">
+      <c r="A328" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="B328" t="inlineStr">
+      <c r="B328" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" t="inlineStr">
+      <c r="C328" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" t="n">
+      <c r="D328" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E328" t="inlineStr">
+      <c r="E328" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" t="b">
-        <v>1</v>
-      </c>
-      <c r="J328" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K328" t="b">
-        <v>1</v>
-      </c>
-      <c r="L328" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F328" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J328" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K328" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L328" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -18546,156 +18546,156 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="n">
+      <c r="A349" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B349" t="inlineStr">
+      <c r="B349" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C349" t="inlineStr">
+      <c r="C349" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D349" t="n">
-        <v>0</v>
-      </c>
-      <c r="E349" t="inlineStr">
+      <c r="D349" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F349" t="inlineStr">
+      <c r="F349" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G349" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" t="b">
-        <v>1</v>
-      </c>
-      <c r="J349" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K349" t="b">
-        <v>1</v>
-      </c>
-      <c r="L349" t="inlineStr">
+      <c r="G349" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J349" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K349" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L349" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="n">
+      <c r="A350" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B350" t="inlineStr">
+      <c r="B350" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C350" t="inlineStr">
+      <c r="C350" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D350" t="n">
-        <v>1</v>
-      </c>
-      <c r="E350" t="inlineStr">
+      <c r="D350" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G350" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I350" t="b">
-        <v>1</v>
-      </c>
-      <c r="J350" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K350" t="b">
-        <v>1</v>
-      </c>
-      <c r="L350" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F350" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G350" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I350" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J350" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K350" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L350" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" t="n">
+      <c r="A351" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="B351" t="inlineStr">
+      <c r="B351" s="2" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C351" t="inlineStr">
+      <c r="C351" s="2" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D351" t="n">
+      <c r="D351" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E351" t="inlineStr">
+      <c r="E351" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F351" t="inlineStr">
+      <c r="F351" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G351" t="b">
-        <v>1</v>
-      </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I351" t="b">
-        <v>1</v>
-      </c>
-      <c r="J351" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K351" t="b">
-        <v>1</v>
-      </c>
-      <c r="L351" t="inlineStr">
+      <c r="G351" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I351" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J351" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K351" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L351" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_original/ori2/42/word_level_predictions_42.xlsx
@@ -4321,7 +4321,7 @@
       </c>
       <c r="F75" s="2" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G75" s="2" t="b">
@@ -4333,11 +4333,11 @@
         </is>
       </c>
       <c r="I75" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K75" s="2" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="L75" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -4385,11 +4385,11 @@
         </is>
       </c>
       <c r="I76" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K76" s="2" t="b">
@@ -4437,11 +4437,11 @@
         </is>
       </c>
       <c r="I77" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K77" s="2" t="b">
@@ -4489,11 +4489,11 @@
         </is>
       </c>
       <c r="I78" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K78" s="2" t="b">
@@ -6378,106 +6378,106 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
+      <c r="A115" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B115" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C115" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D115" t="n">
+      <c r="D115" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="E115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="F115" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G115" t="b">
-        <v>1</v>
-      </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I115" t="b">
-        <v>1</v>
-      </c>
-      <c r="J115" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K115" t="b">
-        <v>1</v>
-      </c>
-      <c r="L115" t="inlineStr">
+      <c r="G115" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J115" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K115" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L115" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
+      <c r="A116" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="B116" t="inlineStr">
+      <c r="B116" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error . Hardware malfunction : Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="C116" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D116" t="n">
+      <c r="D116" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="E116" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G116" t="b">
-        <v>1</v>
-      </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I116" t="b">
-        <v>1</v>
-      </c>
-      <c r="J116" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K116" t="b">
-        <v>1</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F116" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G116" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J116" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K116" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L116" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -12485,7 +12485,7 @@
       </c>
       <c r="F232" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G232" s="2" t="b">
@@ -12509,7 +12509,7 @@
       </c>
       <c r="L232" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12953,7 +12953,7 @@
       </c>
       <c r="F241" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G241" s="2" t="b">
@@ -12977,7 +12977,7 @@
       </c>
       <c r="L241" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -13918,470 +13918,470 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="2" t="n">
+      <c r="A260" t="n">
         <v>20</v>
       </c>
-      <c r="B260" s="2" t="inlineStr">
+      <c r="B260" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C260" s="2" t="inlineStr">
+      <c r="C260" t="inlineStr">
         <is>
           <t>GEO:</t>
         </is>
       </c>
-      <c r="D260" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E260" s="2" t="inlineStr">
+      <c r="D260" t="n">
+        <v>0</v>
+      </c>
+      <c r="E260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F260" s="2" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G260" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H260" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J260" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K260" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L260" s="2" t="inlineStr">
+      <c r="G260" t="b">
+        <v>1</v>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I260" t="b">
+        <v>1</v>
+      </c>
+      <c r="J260" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K260" t="b">
+        <v>1</v>
+      </c>
+      <c r="L260" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="2" t="n">
+      <c r="A261" t="n">
         <v>20</v>
       </c>
-      <c r="B261" s="2" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C261" s="2" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>You</t>
         </is>
       </c>
-      <c r="D261" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E261" s="2" t="inlineStr">
+      <c r="D261" t="n">
+        <v>1</v>
+      </c>
+      <c r="E261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F261" s="2" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G261" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H261" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J261" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K261" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L261" s="2" t="inlineStr">
+      <c r="G261" t="b">
+        <v>1</v>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I261" t="b">
+        <v>1</v>
+      </c>
+      <c r="J261" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K261" t="b">
+        <v>1</v>
+      </c>
+      <c r="L261" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="2" t="n">
+      <c r="A262" t="n">
         <v>20</v>
       </c>
-      <c r="B262" s="2" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C262" s="2" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>are</t>
         </is>
       </c>
-      <c r="D262" s="2" t="n">
+      <c r="D262" t="n">
         <v>2</v>
       </c>
-      <c r="E262" s="2" t="inlineStr">
+      <c r="E262" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F262" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G262" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H262" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J262" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K262" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L262" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G262" t="b">
+        <v>1</v>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I262" t="b">
+        <v>1</v>
+      </c>
+      <c r="J262" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K262" t="b">
+        <v>1</v>
+      </c>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="2" t="n">
+      <c r="A263" t="n">
         <v>20</v>
       </c>
-      <c r="B263" s="2" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C263" s="2" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>in</t>
         </is>
       </c>
-      <c r="D263" s="2" t="n">
+      <c r="D263" t="n">
         <v>3</v>
       </c>
-      <c r="E263" s="2" t="inlineStr">
+      <c r="E263" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F263" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G263" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H263" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J263" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K263" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L263" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G263" t="b">
+        <v>1</v>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I263" t="b">
+        <v>1</v>
+      </c>
+      <c r="J263" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K263" t="b">
+        <v>1</v>
+      </c>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="n">
+      <c r="A264" t="n">
         <v>20</v>
       </c>
-      <c r="B264" s="2" t="inlineStr">
+      <c r="B264" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C264" s="2" t="inlineStr">
+      <c r="C264" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D264" s="2" t="n">
+      <c r="D264" t="n">
         <v>4</v>
       </c>
-      <c r="E264" s="2" t="inlineStr">
+      <c r="E264" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F264" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G264" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L264" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G264" t="b">
+        <v>1</v>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I264" t="b">
+        <v>1</v>
+      </c>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K264" t="b">
+        <v>1</v>
+      </c>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="2" t="n">
+      <c r="A265" t="n">
         <v>20</v>
       </c>
-      <c r="B265" s="2" t="inlineStr">
+      <c r="B265" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C265" s="2" t="inlineStr">
+      <c r="C265" t="inlineStr">
         <is>
           <t>Warning</t>
         </is>
       </c>
-      <c r="D265" s="2" t="n">
+      <c r="D265" t="n">
         <v>5</v>
       </c>
-      <c r="E265" s="2" t="inlineStr">
+      <c r="E265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F265" s="2" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G265" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H265" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L265" s="2" t="inlineStr">
+      <c r="G265" t="b">
+        <v>1</v>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I265" t="b">
+        <v>1</v>
+      </c>
+      <c r="J265" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K265" t="b">
+        <v>1</v>
+      </c>
+      <c r="L265" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="n">
+      <c r="A266" t="n">
         <v>20</v>
       </c>
-      <c r="B266" s="2" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C266" s="2" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>Zone</t>
         </is>
       </c>
-      <c r="D266" s="2" t="n">
+      <c r="D266" t="n">
         <v>6</v>
       </c>
-      <c r="E266" s="2" t="inlineStr">
+      <c r="E266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F266" s="2" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G266" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L266" s="2" t="inlineStr">
+      <c r="G266" t="b">
+        <v>1</v>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I266" t="b">
+        <v>1</v>
+      </c>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K266" t="b">
+        <v>1</v>
+      </c>
+      <c r="L266" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="n">
+      <c r="A267" t="n">
         <v>20</v>
       </c>
-      <c r="B267" s="2" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C267" s="2" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>(Airport</t>
         </is>
       </c>
-      <c r="D267" s="2" t="n">
+      <c r="D267" t="n">
         <v>7</v>
       </c>
-      <c r="E267" s="2" t="inlineStr">
+      <c r="E267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F267" s="2" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G267" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H267" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L267" s="2" t="inlineStr">
+      <c r="G267" t="b">
+        <v>1</v>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I267" t="b">
+        <v>1</v>
+      </c>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K267" t="b">
+        <v>1</v>
+      </c>
+      <c r="L267" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="n">
+      <c r="A268" t="n">
         <v>20</v>
       </c>
-      <c r="B268" s="2" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
         </is>
       </c>
-      <c r="C268" s="2" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>Class</t>
         </is>
       </c>
-      <c r="D268" s="2" t="n">
+      <c r="D268" t="n">
         <v>8</v>
       </c>
-      <c r="E268" s="2" t="inlineStr">
+      <c r="E268" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F268" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G268" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H268" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J268" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K268" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L268" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G268" t="b">
+        <v>1</v>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I268" t="b">
+        <v>1</v>
+      </c>
+      <c r="J268" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K268" t="b">
+        <v>1</v>
+      </c>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -14409,7 +14409,7 @@
       </c>
       <c r="F269" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>B-Event</t>
         </is>
       </c>
       <c r="G269" s="2" t="b">
@@ -14433,7 +14433,7 @@
       </c>
       <c r="L269" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -14461,7 +14461,7 @@
       </c>
       <c r="F270" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G270" s="2" t="b">
@@ -14485,7 +14485,7 @@
       </c>
       <c r="L270" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14513,7 +14513,7 @@
       </c>
       <c r="F271" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G271" s="2" t="b">
@@ -14537,7 +14537,7 @@
       </c>
       <c r="L271" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="F272" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G272" s="2" t="b">
@@ -14589,7 +14589,7 @@
       </c>
       <c r="L272" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17090,418 +17090,418 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="2" t="n">
+      <c r="A321" t="n">
         <v>26</v>
       </c>
-      <c r="B321" s="2" t="inlineStr">
+      <c r="B321" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C321" s="2" t="inlineStr">
+      <c r="C321" t="inlineStr">
         <is>
           <t>Go</t>
         </is>
       </c>
-      <c r="D321" s="2" t="n">
+      <c r="D321" t="n">
         <v>4</v>
       </c>
-      <c r="E321" s="2" t="inlineStr">
+      <c r="E321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F321" s="2" t="inlineStr">
+      <c r="F321" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G321" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H321" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J321" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K321" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L321" s="2" t="inlineStr">
+      <c r="G321" t="b">
+        <v>1</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I321" t="b">
+        <v>1</v>
+      </c>
+      <c r="J321" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K321" t="b">
+        <v>1</v>
+      </c>
+      <c r="L321" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="2" t="n">
+      <c r="A322" t="n">
         <v>26</v>
       </c>
-      <c r="B322" s="2" t="inlineStr">
+      <c r="B322" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C322" s="2" t="inlineStr">
+      <c r="C322" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D322" s="2" t="n">
+      <c r="D322" t="n">
         <v>5</v>
       </c>
-      <c r="E322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F322" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G322" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H322" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J322" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K322" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L322" s="2" t="inlineStr">
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G322" t="b">
+        <v>1</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I322" t="b">
+        <v>1</v>
+      </c>
+      <c r="J322" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K322" t="b">
+        <v>1</v>
+      </c>
+      <c r="L322" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="2" t="n">
+      <c r="A323" t="n">
         <v>26</v>
       </c>
-      <c r="B323" s="2" t="inlineStr">
+      <c r="B323" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C323" s="2" t="inlineStr">
+      <c r="C323" t="inlineStr">
         <is>
           <t>Profile</t>
         </is>
       </c>
-      <c r="D323" s="2" t="n">
+      <c r="D323" t="n">
         <v>6</v>
       </c>
-      <c r="E323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F323" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G323" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H323" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J323" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K323" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L323" s="2" t="inlineStr">
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G323" t="b">
+        <v>1</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I323" t="b">
+        <v>1</v>
+      </c>
+      <c r="J323" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K323" t="b">
+        <v>1</v>
+      </c>
+      <c r="L323" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="2" t="n">
+      <c r="A324" t="n">
         <v>26</v>
       </c>
-      <c r="B324" s="2" t="inlineStr">
+      <c r="B324" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C324" s="2" t="inlineStr">
+      <c r="C324" t="inlineStr">
         <is>
           <t>&gt;</t>
         </is>
       </c>
-      <c r="D324" s="2" t="n">
+      <c r="D324" t="n">
         <v>7</v>
       </c>
-      <c r="E324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F324" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G324" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H324" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J324" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K324" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L324" s="2" t="inlineStr">
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G324" t="b">
+        <v>1</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I324" t="b">
+        <v>1</v>
+      </c>
+      <c r="J324" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K324" t="b">
+        <v>1</v>
+      </c>
+      <c r="L324" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="2" t="n">
+      <c r="A325" t="n">
         <v>26</v>
       </c>
-      <c r="B325" s="2" t="inlineStr">
+      <c r="B325" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C325" s="2" t="inlineStr">
+      <c r="C325" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D325" s="2" t="n">
+      <c r="D325" t="n">
         <v>8</v>
       </c>
-      <c r="E325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F325" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G325" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J325" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K325" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L325" s="2" t="inlineStr">
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G325" t="b">
+        <v>1</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I325" t="b">
+        <v>1</v>
+      </c>
+      <c r="J325" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K325" t="b">
+        <v>1</v>
+      </c>
+      <c r="L325" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="2" t="n">
+      <c r="A326" t="n">
         <v>26</v>
       </c>
-      <c r="B326" s="2" t="inlineStr">
+      <c r="B326" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C326" s="2" t="inlineStr">
+      <c r="C326" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D326" s="2" t="n">
+      <c r="D326" t="n">
         <v>9</v>
       </c>
-      <c r="E326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F326" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G326" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J326" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K326" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L326" s="2" t="inlineStr">
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G326" t="b">
+        <v>1</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I326" t="b">
+        <v>1</v>
+      </c>
+      <c r="J326" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K326" t="b">
+        <v>1</v>
+      </c>
+      <c r="L326" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="2" t="n">
+      <c r="A327" t="n">
         <v>26</v>
       </c>
-      <c r="B327" s="2" t="inlineStr">
+      <c r="B327" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C327" s="2" t="inlineStr">
+      <c r="C327" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D327" s="2" t="n">
+      <c r="D327" t="n">
         <v>10</v>
       </c>
-      <c r="E327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F327" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G327" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H327" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J327" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K327" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L327" s="2" t="inlineStr">
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G327" t="b">
+        <v>1</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I327" t="b">
+        <v>1</v>
+      </c>
+      <c r="J327" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K327" t="b">
+        <v>1</v>
+      </c>
+      <c r="L327" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="2" t="n">
+      <c r="A328" t="n">
         <v>26</v>
       </c>
-      <c r="B328" s="2" t="inlineStr">
+      <c r="B328" t="inlineStr">
         <is>
           <t>Incompatible firmware version . Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C328" s="2" t="inlineStr">
+      <c r="C328" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D328" s="2" t="n">
+      <c r="D328" t="n">
         <v>11</v>
       </c>
-      <c r="E328" s="2" t="inlineStr">
+      <c r="E328" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F328" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G328" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H328" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J328" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K328" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L328" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G328" t="b">
+        <v>1</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I328" t="b">
+        <v>1</v>
+      </c>
+      <c r="J328" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K328" t="b">
+        <v>1</v>
+      </c>
+      <c r="L328" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -17593,11 +17593,11 @@
         </is>
       </c>
       <c r="I330" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J330" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K330" s="2" t="b">
@@ -17645,11 +17645,11 @@
         </is>
       </c>
       <c r="I331" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J331" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K331" s="2" t="b">
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F332" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G332" s="2" t="b">
@@ -17697,11 +17697,11 @@
         </is>
       </c>
       <c r="I332" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J332" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K332" s="2" t="b">
@@ -17709,7 +17709,7 @@
       </c>
       <c r="L332" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -17749,11 +17749,11 @@
         </is>
       </c>
       <c r="I333" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J333" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K333" s="2" t="b">
@@ -18546,156 +18546,156 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="2" t="n">
+      <c r="A349" t="n">
         <v>29</v>
       </c>
-      <c r="B349" s="2" t="inlineStr">
+      <c r="B349" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C349" s="2" t="inlineStr">
+      <c r="C349" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D349" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E349" s="2" t="inlineStr">
+      <c r="D349" t="n">
+        <v>0</v>
+      </c>
+      <c r="E349" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F349" s="2" t="inlineStr">
+      <c r="F349" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G349" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H349" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J349" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K349" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L349" s="2" t="inlineStr">
+      <c r="G349" t="b">
+        <v>1</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I349" t="b">
+        <v>1</v>
+      </c>
+      <c r="J349" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K349" t="b">
+        <v>1</v>
+      </c>
+      <c r="L349" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="2" t="n">
+      <c r="A350" t="n">
         <v>29</v>
       </c>
-      <c r="B350" s="2" t="inlineStr">
+      <c r="B350" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C350" s="2" t="inlineStr">
+      <c r="C350" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D350" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E350" s="2" t="inlineStr">
+      <c r="D350" t="n">
+        <v>1</v>
+      </c>
+      <c r="E350" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F350" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G350" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H350" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I350" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J350" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K350" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L350" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G350" t="b">
+        <v>1</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I350" t="b">
+        <v>1</v>
+      </c>
+      <c r="J350" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K350" t="b">
+        <v>1</v>
+      </c>
+      <c r="L350" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="2" t="n">
+      <c r="A351" t="n">
         <v>29</v>
       </c>
-      <c r="B351" s="2" t="inlineStr">
+      <c r="B351" t="inlineStr">
         <is>
           <t>Max Altitude Approached . Wait for the GPS satellite signal recovery before ascend .</t>
         </is>
       </c>
-      <c r="C351" s="2" t="inlineStr">
+      <c r="C351" t="inlineStr">
         <is>
           <t>Approached</t>
         </is>
       </c>
-      <c r="D351" s="2" t="n">
+      <c r="D351" t="n">
         <v>2</v>
       </c>
-      <c r="E351" s="2" t="inlineStr">
+      <c r="E351" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F351" s="2" t="inlineStr">
+      <c r="F351" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G351" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H351" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I351" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J351" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K351" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L351" s="2" t="inlineStr">
+      <c r="G351" t="b">
+        <v>1</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I351" t="b">
+        <v>1</v>
+      </c>
+      <c r="J351" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K351" t="b">
+        <v>1</v>
+      </c>
+      <c r="L351" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
